--- a/data/trans_bre/POLIPATOLOGIA_5-Clase-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_5-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.7704850689102698</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.192807812477863</v>
+        <v>3.192807812477862</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7473218280577777</v>
@@ -649,7 +649,7 @@
         <v>0.2009121136244673</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5306348596490597</v>
+        <v>0.5306348596490594</v>
       </c>
     </row>
     <row r="5">
@@ -660,26 +660,26 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5935217855840975</v>
+        <v>-0.5852390287825826</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.933309274699894</v>
+        <v>2.228369416470982</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.505630145380675</v>
+        <v>-1.930299108105403</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2201853402642482</v>
+        <v>0.3362905576096696</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1964689207696094</v>
+        <v>-0.205424638326288</v>
       </c>
       <c r="H5" s="6" t="inlineStr"/>
       <c r="I5" s="6" t="n">
-        <v>-0.5028944014108444</v>
+        <v>-0.4302991455272341</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.01951052879742969</v>
+        <v>0.04757257688926042</v>
       </c>
     </row>
     <row r="6">
@@ -690,26 +690,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.935527569306553</v>
+        <v>5.471854120585508</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.201588728269284</v>
+        <v>7.139841076920941</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.773156581488452</v>
+        <v>4.026578170869891</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.957240350535917</v>
+        <v>6.090659759405602</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.122156453636276</v>
+        <v>3.261964114891828</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>1.443318778801982</v>
+        <v>1.522739359542418</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.243288831191887</v>
+        <v>1.257925768202725</v>
       </c>
     </row>
     <row r="7">
@@ -733,7 +733,7 @@
         <v>2.833746984125779</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.292945550743304</v>
+        <v>5.292945550743303</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6985144271417628</v>
@@ -756,28 +756,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.6101737309711913</v>
+        <v>-0.9350468933038412</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4855330900415199</v>
+        <v>0.4850204525354157</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2931957404032236</v>
+        <v>0.4181594332043064</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.688602556821852</v>
+        <v>1.966088123233806</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2551163598893143</v>
+        <v>-0.3623396341530439</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07200761954763255</v>
+        <v>0.01571056356936357</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.199525962595021</v>
+        <v>0.03706329658292958</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.182444157455811</v>
+        <v>0.2214935863908508</v>
       </c>
     </row>
     <row r="9">
@@ -788,28 +788,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.562221008870269</v>
+        <v>4.194552594293842</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.225532791664809</v>
+        <v>6.219918954375723</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.682958387867962</v>
+        <v>5.70353712963842</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.546202422301661</v>
+        <v>8.979340545641708</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.407278756655924</v>
+        <v>3.258107582884161</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.671660974096464</v>
+        <v>6.255888831888867</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>7.967004342858767</v>
+        <v>9.337566627078976</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.517267618918873</v>
+        <v>1.619612833757569</v>
       </c>
     </row>
     <row r="10">
@@ -833,7 +833,7 @@
         <v>11.85601569941658</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9.325280990997483</v>
+        <v>9.325280990997484</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.549548325123425</v>
@@ -845,7 +845,7 @@
         <v>4.348934927395709</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.8759144009085339</v>
+        <v>0.8759144009085343</v>
       </c>
     </row>
     <row r="11">
@@ -856,28 +856,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.202459734769537</v>
+        <v>1.011848554130258</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.678580318627492</v>
+        <v>-1.675320201955655</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.038081508643486</v>
+        <v>6.355805590847355</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.140187993997137</v>
+        <v>4.400905251651166</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2310441424945198</v>
+        <v>0.207624187212364</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3158251328359398</v>
+        <v>-0.3091444733083027</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1.481378782721401</v>
+        <v>1.690459124386768</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.302065532968353</v>
+        <v>0.3237973694986846</v>
       </c>
     </row>
     <row r="12">
@@ -888,28 +888,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.35419687433611</v>
+        <v>10.47045345712347</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.446427876713813</v>
+        <v>5.325234855070524</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19.08372523019588</v>
+        <v>18.29424718331627</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.45741196223662</v>
+        <v>14.65868081209021</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.321047130356011</v>
+        <v>4.486626138092986</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.516062377412384</v>
+        <v>1.490414380328228</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>10.24149629250338</v>
+        <v>9.624447410689521</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.565147834723539</v>
+        <v>1.638123102941696</v>
       </c>
     </row>
     <row r="13">
@@ -933,7 +933,7 @@
         <v>3.128991093251874</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.559049649276685</v>
+        <v>1.559049649276687</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3377499098663746</v>
@@ -945,7 +945,7 @@
         <v>0.8275365349488576</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1503329870800966</v>
+        <v>0.1503329870800967</v>
       </c>
     </row>
     <row r="14">
@@ -956,28 +956,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.444810993527649</v>
+        <v>-0.4111693546743915</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.530073534247165</v>
+        <v>-1.581134177310676</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9283789416551452</v>
+        <v>0.8932449031555421</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.9293196459120157</v>
+        <v>-0.8574422093786591</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.09365837639834743</v>
+        <v>-0.08091697142961411</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2395800490302981</v>
+        <v>-0.2307060604028476</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1907903641408009</v>
+        <v>0.1959593124105813</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.08338790951971245</v>
+        <v>-0.07833555854355261</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +988,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.408842624195988</v>
+        <v>3.651795579522515</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.086028520833006</v>
+        <v>3.157675705406135</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.168899738181851</v>
+        <v>5.458541138011149</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.871593551696236</v>
+        <v>3.693344891536854</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8894405765232147</v>
+        <v>0.9549236151414334</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6187370166682045</v>
+        <v>0.610471139422927</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.607661856936491</v>
+        <v>1.808326779958163</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4144445051411672</v>
+        <v>0.4032520914818543</v>
       </c>
     </row>
     <row r="16">
@@ -1045,7 +1045,7 @@
         <v>1.148260993022911</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>1.857546486015426</v>
+        <v>1.857546486015427</v>
       </c>
     </row>
     <row r="17">
@@ -1056,28 +1056,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.060260811000059</v>
+        <v>-1.072736946110187</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.838075817945036</v>
+        <v>6.946114179936613</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.618116553558989</v>
+        <v>3.987496170426018</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13.11810392023285</v>
+        <v>13.08293303903188</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1827496894408691</v>
+        <v>-0.1963489730033312</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.258963249623502</v>
+        <v>1.19925307203733</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4460437077076885</v>
+        <v>0.4915800611534201</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>1.209725083052559</v>
+        <v>1.245209068494065</v>
       </c>
     </row>
     <row r="18">
@@ -1088,28 +1088,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.857274655057275</v>
+        <v>5.042916641397228</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.02761069488386</v>
+        <v>13.06998142207197</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.30374374514185</v>
+        <v>10.44133939128186</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19.38575897760862</v>
+        <v>19.46914251962792</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.455061109303692</v>
+        <v>1.518686419741066</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5.454538681828682</v>
+        <v>5.333758468475765</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.009482912021173</v>
+        <v>2.123529697739228</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.714223571525238</v>
+        <v>2.792736375233568</v>
       </c>
     </row>
     <row r="19">
@@ -1156,24 +1156,24 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>6.294834871711536</v>
+        <v>6.471207460595293</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>10.58876826586795</v>
+        <v>10.33909661439316</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9.855379818767654</v>
+        <v>9.883574822262243</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12.21155033944601</v>
+        <v>12.35912011562731</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>4.759580304152845</v>
+        <v>4.139200398277359</v>
       </c>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>2.013409609214642</v>
+        <v>2.26510253947114</v>
       </c>
     </row>
     <row r="21">
@@ -1184,22 +1184,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>9.576690513864712</v>
+        <v>9.884554142552943</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>15.12147577352596</v>
+        <v>15.21555053903822</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>14.26019596857929</v>
+        <v>14.29056445937981</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18.38997888346707</v>
+        <v>18.49125265821387</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>15.11796722579692</v>
+        <v>17.1575907516922</v>
       </c>
     </row>
     <row r="22">
@@ -1235,7 +1235,7 @@
         <v>1.77754510538087</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.9564068095527973</v>
+        <v>0.9564068095527977</v>
       </c>
     </row>
     <row r="23">
@@ -1246,28 +1246,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.181832116259844</v>
+        <v>2.221035885753955</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.755824656917</v>
+        <v>4.798023916112439</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.009307945991166</v>
+        <v>5.137986362648443</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.798588210416669</v>
+        <v>6.652208592280465</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5540386018023795</v>
+        <v>0.5683179691393673</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1.075288863701537</v>
+        <v>1.117916777373166</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1.253624142719422</v>
+        <v>1.276429786834386</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.751265160553879</v>
+        <v>0.727581409819296</v>
       </c>
     </row>
     <row r="24">
@@ -1278,28 +1278,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.301468143872534</v>
+        <v>4.504545200920728</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.269177331886927</v>
+        <v>7.312831852987355</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.556234098831732</v>
+        <v>7.559472589453557</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.366749159130659</v>
+        <v>9.383885193736706</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.418293005939687</v>
+        <v>1.468860045828835</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>2.213851060992231</v>
+        <v>2.176341028703196</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>2.442887287968261</v>
+        <v>2.492070850153623</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.206394610925084</v>
+        <v>1.202432183279095</v>
       </c>
     </row>
     <row r="25">
